--- a/data/income_statement/3digits/total/829_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/829_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>829-Business support service activities n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>829-Business support service activities n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1600075.79156</v>
@@ -962,31 +868,36 @@
         <v>2753332.07803</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3418725.5285</v>
+        <v>3419333.36527</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4013930.2384</v>
+        <v>4099717.75272</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4805696.5435</v>
+        <v>5100269.955</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6025480.25996</v>
+        <v>6157930.39532</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>7455211.27484</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8833494.683630001</v>
+        <v>8883595.440130001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11664955.91202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11818251.54388</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14094240.832</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1521903.06405</v>
@@ -1001,31 +912,36 @@
         <v>2647535.5253</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3308942.48463</v>
+        <v>3309291.84803</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3865197.22275</v>
+        <v>3950220.19707</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4633909.44338</v>
+        <v>4926482.62629</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5778411.802920001</v>
+        <v>5909206.56976</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7073123.591290001</v>
+        <v>7073123.591289999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8214017.26927</v>
+        <v>8259080.98877</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10921807.81297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11047201.88835</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13065829.443</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>45420.20197</v>
@@ -1040,31 +956,36 @@
         <v>65844.42694</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>74184.86915000001</v>
+        <v>74443.34252000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>113454.64985</v>
+        <v>114163.00152</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>117686.60552</v>
+        <v>118730.50248</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>165745.27884</v>
+        <v>166090.81512</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>261384.58978</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>461919.02072</v>
+        <v>465719.3254399999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>519691.75639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>545750.94176</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>760986.078</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>32752.52554</v>
@@ -1073,7 +994,7 @@
         <v>34396.69624</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>42200.42183</v>
+        <v>42200.42183000001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>39952.12579</v>
@@ -1082,28 +1003,33 @@
         <v>35598.17472</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>35278.36580000001</v>
+        <v>35334.55413</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>54100.49459999999</v>
+        <v>55056.82623000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>81323.17820000001</v>
+        <v>82633.01044</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>120703.09377</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>157558.39364</v>
+        <v>158795.12592</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>223456.34266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>225298.71377</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>267425.311</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>29317.27558</v>
@@ -1112,37 +1038,42 @@
         <v>48712.8984</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>67992.16871</v>
+        <v>67992.16871000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>83454.50997999999</v>
+        <v>83454.50998</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>103460.96026</v>
+        <v>103461.11403</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>145468.15724</v>
+        <v>145499.96488</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>164813.57558</v>
+        <v>166515.00946</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>185379.36109</v>
+        <v>227256.79909</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>275420.67422</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>320909.61223</v>
+        <v>320922.05393</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>135469.31075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>136365.66485</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>182761.334</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>8634.600719999999</v>
@@ -1157,31 +1088,36 @@
         <v>15642.6835</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>19157.46376</v>
+        <v>19157.61753</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>37964.69664</v>
+        <v>37987.68653</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>29225.78535</v>
+        <v>30896.03658</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>59994.89992999999</v>
+        <v>60291.93493</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>64283.17782999999</v>
+        <v>64283.17783</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>69525.72759000001</v>
+        <v>69536.79778000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>76731.32957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76860.60150999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>120564.224</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>20130.61232</v>
@@ -1202,10 +1138,10 @@
         <v>105397.47416</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>133382.51298</v>
+        <v>133392.21048</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>123359.00302</v>
+        <v>164882.30783</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>209537.12992</v>
@@ -1214,13 +1150,18 @@
         <v>249119.0989</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>56762.28385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>56766.52114</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>56930.272</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>552.06254</v>
@@ -1238,28 +1179,33 @@
         <v>1902.08157</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2105.98644</v>
+        <v>2114.80419</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2205.27725</v>
+        <v>2226.7624</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2025.45814</v>
+        <v>2082.55633</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1600.36647</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2264.78574</v>
+        <v>2266.15725</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1975.69733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2738.5422</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5266.838</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1570758.51598</v>
@@ -1274,31 +1220,36 @@
         <v>2669877.56805</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3315264.56824</v>
+        <v>3315872.25124</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3868462.08116</v>
+        <v>3954217.78784</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4640882.96792</v>
+        <v>4933754.94554</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5840100.898869999</v>
+        <v>5930673.59623</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7179790.600619999</v>
+        <v>7179790.60062</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8512585.0714</v>
+        <v>8562673.3862</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11529486.60127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11681885.87903</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13911479.498</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1307178.49809</v>
@@ -1313,37 +1264,42 @@
         <v>2273195.83972</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2858856.08524</v>
+        <v>2859363.61137</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3328959.84628</v>
+        <v>3372602.3027</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4129584.58472</v>
+        <v>4279366.1622</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5073688.41401</v>
+        <v>5118264.715280001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6113790.89262</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6831635.956120001</v>
+        <v>6874756.668349998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9222571.736260001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9361583.655340001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10931833.43</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>138058.16136</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>95614.62944999999</v>
+        <v>95614.62945000001</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>127937.48646</v>
@@ -1361,22 +1317,27 @@
         <v>290099.08027</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>376240.27002</v>
+        <v>382576.9856899999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>463405.33414</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>519559.08349</v>
+        <v>522841.15013</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>606143.65654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>607672.0623999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>936787.461</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>247258.94098</v>
@@ -1385,7 +1346,7 @@
         <v>276149.96984</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>292401.8740299999</v>
+        <v>292401.87403</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>322616.63099</v>
@@ -1394,31 +1355,36 @@
         <v>407397.62807</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>482685.43736</v>
+        <v>482772.52405</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>590333.62655</v>
+        <v>590336.90105</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>686394.2746700001</v>
+        <v>710276.43806</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>948943.06339</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>917158.4730000001</v>
+        <v>928565.27599</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1958685.96619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2062217.42978</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2282038.592</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>919429.1899499999</v>
+        <v>919429.18995</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>1128416.48529</v>
@@ -1430,37 +1396,42 @@
         <v>1783254.433</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2205599.08312</v>
+        <v>2206106.60925</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2573681.74777</v>
+        <v>2617237.1175</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3242719.68068</v>
+        <v>3392192.87238</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3997462.71695</v>
+        <v>4011792.89809</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4685649.7116</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5383068.937960001</v>
+        <v>5411395.355119999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6640320.585090001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6674017.58149</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7581342.743</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2432.2058</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3019.9761</v>
+        <v>3019.976099999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>17464.58205</v>
@@ -1475,25 +1446,30 @@
         <v>3830.51703</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6432.197220000001</v>
+        <v>6737.3085</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>13591.15237</v>
+        <v>13618.39344</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>15792.78349</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11849.46167</v>
+        <v>11954.88711</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>17421.52844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17676.58167</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>131664.634</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>263580.01789</v>
@@ -1508,31 +1484,36 @@
         <v>396681.7283300001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>456408.483</v>
+        <v>456508.63987</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>539502.23488</v>
+        <v>581615.48514</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>511298.3831999999</v>
+        <v>654388.7833400001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>766412.48486</v>
+        <v>812408.88095</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1065999.708</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1680949.11528</v>
+        <v>1687916.71785</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2306914.86501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2320302.22369</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2979646.068</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>189671.51761</v>
@@ -1547,31 +1528,36 @@
         <v>281752.65711</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>303903.66569</v>
+        <v>304002.86526</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>406378.19494</v>
+        <v>409272.10959</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>401628.17327</v>
+        <v>495745.97673</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>570702.3219600001</v>
+        <v>599709.3895</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>763427.6731700001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>927276.8883</v>
+        <v>932722.9699400001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1151776.57534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1167348.82999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1275813.816</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6045.516860000001</v>
@@ -1580,7 +1566,7 @@
         <v>5881.26409</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>8148.019929999999</v>
+        <v>8148.01993</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>11587.19075</v>
@@ -1604,13 +1590,18 @@
         <v>4914.01333</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>10759.12175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10713.38659</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>23125.208</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>42888.6945</v>
@@ -1619,37 +1610,42 @@
         <v>48513.19903</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>56282.91196</v>
+        <v>56282.91195999999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>69287.63269999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>60855.43992</v>
+        <v>60907.29865999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>87594.21824000002</v>
+        <v>87651.78777000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>86133.85255</v>
+        <v>95130.39221000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>94990.88546</v>
+        <v>107297.37427</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>122190.94049</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>157692.66669</v>
+        <v>157878.12441</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>238268.3148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>239830.10017</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>305698.684</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>140737.30625</v>
@@ -1664,37 +1660,42 @@
         <v>200877.83366</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>232547.30323</v>
+        <v>232594.64406</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>303490.10474</v>
+        <v>306326.44986</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>294770.03807</v>
+        <v>379891.30187</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>447554.29968</v>
+        <v>464254.8784099999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>599835.14261</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>764670.2082800001</v>
+        <v>769930.8322000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>902749.13879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>916805.34323</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>946989.924</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>73908.50028000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>98438.18902999998</v>
+        <v>98438.18902999999</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>110289.09685</v>
@@ -1703,31 +1704,36 @@
         <v>114929.07122</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>152504.81731</v>
+        <v>152505.77461</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>133124.03994</v>
+        <v>172343.37555</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>109670.20993</v>
+        <v>158642.80661</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>195710.1629</v>
+        <v>212699.49145</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>302572.03483</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>753672.22698</v>
+        <v>755193.74791</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1155138.28967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1152953.3937</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1703832.252</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>54929.99785</v>
@@ -1745,28 +1751,33 @@
         <v>77518.21247</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>95888.43920000001</v>
+        <v>99929.34110999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>173022.47977</v>
+        <v>183382.82688</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>164031.27338</v>
+        <v>184799.55003</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>283770.54403</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1008610.3225</v>
+        <v>1009689.80425</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1489327.10497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1490777.76968</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1360091.654</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2689.19253</v>
@@ -1775,10 +1786,10 @@
         <v>1797.36363</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3291.00988</v>
+        <v>3291.009880000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3461.815059999999</v>
+        <v>3461.81506</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>2355.07369</v>
@@ -1790,7 +1801,7 @@
         <v>2205.25068</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3086.74096</v>
+        <v>3565.31622</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>4471.85079</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>12270.87353</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13086.666</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15592.78151</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>635824.33446</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>315171.087</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>15863.41008</v>
@@ -1862,28 +1883,33 @@
         <v>23041.32073</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>33704.50217</v>
+        <v>37750.28545</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>31742.64869</v>
+        <v>39807.93535</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>31767.65535</v>
+        <v>46350.03151</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>62457.97016000001</v>
+        <v>62457.97016</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>152106.69058</v>
+        <v>152144.82885</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>216219.21755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>216283.07712</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>203478.285</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>570.26613</v>
@@ -1898,7 +1924,7 @@
         <v>206.5075</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>884.16088</v>
+        <v>884.1608800000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1496.0877</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>471.31911</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1924.992</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1389.87098</v>
@@ -1943,34 +1974,39 @@
         <v>3044.29161</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5104.35744</v>
+        <v>5159.56316</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4700.677</v>
+        <v>7598.347529999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>54491.23802</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6886.126500000001</v>
+        <v>6886.1265</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>9268.170470000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9268.170469999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13626.586</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>173.49541</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>319.06233</v>
+        <v>319.0623300000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>481.6553500000001</v>
+        <v>481.65535</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1939.97779</v>
@@ -1982,10 +2018,10 @@
         <v>3013.61126</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>74293.61040999998</v>
+        <v>74300.76518999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4869.36847</v>
+        <v>4871.31524</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>65117.52595</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>29929.89211</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>68930.133</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11375.46108</v>
@@ -2021,25 +2062,30 @@
         <v>29752.99106</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>32512.98441</v>
+        <v>33838.4491</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>85619.11968</v>
+        <v>87960.58516000002</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>60390.12672</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>616411.6562099999</v>
+        <v>617745.1159200001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>419948.39756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>421280.69328</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>615637.466</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>123.71879</v>
@@ -2060,10 +2106,10 @@
         <v>352.17399</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>153.40041</v>
+        <v>238.70878</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>374.16355</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>235.825</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.65938</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>8.8043</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7151.141959999999</v>
+        <v>7151.14196</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6222.916990000001</v>
+        <v>6222.91699</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>4649.22375</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>-470.5882000000003</v>
+        <v>-470.5882000000002</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6526.276459999999</v>
+        <v>6526.276460000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8901.01864</v>
+        <v>8896.137270000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>17347.83449</v>
+        <v>18169.76138</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>17505.91317</v>
+        <v>17972.06062</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>17175.8345</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>137622.88445</v>
+        <v>137330.76822</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>165386.09588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>165440.6053</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>128000.614</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>20030.39282</v>
@@ -2174,28 +2235,33 @@
         <v>32385.14966</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43173.24948999999</v>
+        <v>43173.24993000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>99036.51699</v>
+        <v>101219.08328</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>125564.96945</v>
+        <v>130789.62993</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>190155.44617</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>983822.7342900001</v>
+        <v>984729.31165</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>625760.4904300001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>628772.79737</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>816952.6899999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1012.11604</v>
@@ -2225,16 +2291,21 @@
         <v>3420.89126</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1926.78774</v>
+        <v>1938.56985</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4500.549150000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4501.06508</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3291.584</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5065.584269999999</v>
@@ -2246,19 +2317,19 @@
         <v>7895.05716</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6055.759239999999</v>
+        <v>6055.75924</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8028.312539999999</v>
+        <v>8028.31254</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8978.173669999998</v>
+        <v>8978.17367</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>57872.64247000001</v>
+        <v>58886.72717999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13348.92216</v>
+        <v>16820.90212</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>17618.62903</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>37835.64894</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>22705.029</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>12.66614</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>4004.65896</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5028.06</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>12364.30525</v>
@@ -2330,28 +2411,33 @@
         <v>20963.41421</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>30787.12507000001</v>
+        <v>30787.12507</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>38950.16764</v>
+        <v>40118.64922</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>105329.15624</v>
+        <v>107061.38782</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>166009.84825</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>828784.4181400001</v>
+        <v>829585.97674</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>414643.88677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>415379.63481</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>671574.9939999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.9311699999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>936.12149</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>8.724</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>25.87007</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>98.872</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1574.78995</v>
@@ -2447,28 +2543,33 @@
         <v>2574.69421</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2157.10943</v>
+        <v>2157.109870000001</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>1194.16355</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4172.95412</v>
+        <v>4193.40306</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2507.98658</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>131702.90071</v>
+        <v>131796.13736</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>163813.75505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>166089.79802</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>114245.427</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>12214.60741</v>
@@ -2486,28 +2587,33 @@
         <v>25190.38019</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>32232.27037</v>
+        <v>32244.8142</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>47211.22132999999</v>
+        <v>47910.41479</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>59459.22279</v>
+        <v>60906.91757</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>92258.92574000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>119231.24096</v>
+        <v>119252.08059</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>177519.8619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>178380.85935</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>145352.525</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>11819.82936</v>
@@ -2525,31 +2631,36 @@
         <v>24219.98697</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>31308.19538</v>
+        <v>31320.73921</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>46216.55153</v>
+        <v>46915.74498999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>58312.26606</v>
+        <v>59759.96084000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>90790.44411000001</v>
+        <v>90790.44411</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>108635.8381</v>
+        <v>108656.67773</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>168818.92396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>169679.92141</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>138367.576</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>394.77805</v>
+        <v>394.7780500000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>296.93236</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>8700.93794</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>6984.949</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>96593.4979</v>
+        <v>96593.49789999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>110310.66902</v>
@@ -2600,31 +2716,36 @@
         <v>122517.09996</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>172447.49993</v>
+        <v>172448.45723</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>153606.95928</v>
+        <v>196854.65253</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>136444.95138</v>
+        <v>192896.13542</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>174717.24404</v>
+        <v>205802.49398</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>303928.20695</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>659228.57423</v>
+        <v>660902.15992</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1841185.04231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1836577.50666</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2101618.691</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>20054.4402</v>
@@ -2642,28 +2763,33 @@
         <v>30194.88461</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>30627.10204</v>
+        <v>30636.44651</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>40772.42539</v>
+        <v>41653.92118</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>70645.05127000001</v>
+        <v>71153.34626999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>60963.87006999999</v>
+        <v>60963.87007</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>107310.38293</v>
+        <v>107390.77897</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>135974.42288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>136513.62176</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>120162.135</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>176.88788</v>
@@ -2693,16 +2819,21 @@
         <v>2725.67481</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9778.524600000001</v>
+        <v>9778.524599999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1416.64855</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1438.79837</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2326.615</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>19877.55232</v>
@@ -2720,28 +2851,33 @@
         <v>29122.70965</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>29582.76586</v>
+        <v>29592.11033</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>40651.69988</v>
+        <v>41533.19567</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>70497.81594</v>
+        <v>71006.11094</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>58238.19526</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>97531.85833000002</v>
+        <v>97612.25437000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>134557.77433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>135074.82339</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>117835.52</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>12483.49793</v>
@@ -2759,28 +2895,33 @@
         <v>14169.0046</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>27580.78816999999</v>
+        <v>27591.7245</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>43212.56929</v>
+        <v>43958.42317</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>64653.62316</v>
+        <v>64679.15968</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>129748.02086</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>54954.57217</v>
+        <v>55320.98317</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>61503.88837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>62351.97989</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>100145.284</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>109.96454</v>
@@ -2813,16 +2954,21 @@
         <v>1221.5947</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1715.43927</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1718.09105</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>497.546</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>988.3367000000001</v>
+        <v>988.3367</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>1333.98615</v>
@@ -2840,25 +2986,30 @@
         <v>1478.84981</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11662.25659</v>
+        <v>12091.77425</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>752.6810400000001</v>
+        <v>753.0202399999998</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1733.67328</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1763.31712</v>
+        <v>1786.48514</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5532.37534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5586.27224</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1647.395</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11385.19669</v>
@@ -2876,28 +3027,33 @@
         <v>12154.63937</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25601.20438</v>
+        <v>25612.14071</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>30926.47269</v>
+        <v>31242.80891</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>63405.48613</v>
+        <v>63430.68345</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>127079.0563</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>51969.66035</v>
+        <v>52312.90333000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>54256.07376000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>55047.6166</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>98000.34299999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>104164.44017</v>
@@ -2912,31 +3068,36 @@
         <v>131956.91384</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>188473.37994</v>
+        <v>188474.33724</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>156653.27315</v>
+        <v>199899.37454</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>134004.80748</v>
+        <v>190591.63343</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>180708.67215</v>
+        <v>212276.68057</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>235144.05616</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>711584.3849899999</v>
+        <v>712971.9557200001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1915655.57682</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1910739.14853</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2121635.542</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>19029.27927</v>
@@ -2945,7 +3106,7 @@
         <v>23617.1399</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24098.17805</v>
+        <v>24098.17805000001</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>24988.5265</v>
@@ -2954,64 +3115,72 @@
         <v>37118.7542</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40462.53742999999</v>
+        <v>48193.65657</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>44490.92657</v>
+        <v>56045.71939</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>46808.07322999999</v>
+        <v>52922.40816000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>68867.30517000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>76204.88466</v>
+        <v>76670.73103</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>223902.04511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>224752.23838</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>331422.672</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>85135.16089999999</v>
+        <v>85135.1609</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>90004.97947000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>47200.31217000001</v>
+        <v>47200.31217</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>106968.38734</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>151354.62574</v>
+        <v>151355.58304</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>116190.73572</v>
+        <v>151705.71797</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>89513.88090999999</v>
+        <v>134545.91404</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>133900.59892</v>
+        <v>159354.27241</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>166276.75099</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>635379.5003300001</v>
+        <v>636301.2246899999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1691753.53171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1685986.91015</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1790212.87</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1157</v>
@@ -3044,28 +3216,31 @@
         <v>1237</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1172</v>
+        <v>1189</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1299</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1674</v>
+        <v>1886</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1864</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>